--- a/biology/Botanique/Physiologie_végétale/Physiologie_végétale.xlsx
+++ b/biology/Botanique/Physiologie_végétale/Physiologie_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Physiologie_v%C3%A9g%C3%A9tale</t>
+          <t>Physiologie_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La physiologie végétale, ou phytobiologie, est la science qui étudie le fonctionnement des organes et des tissus végétaux. Elle cherche à préciser la nature des mécanismes grâce auxquels les organes remplissent leurs fonctions.
 Les domaines d'étude de la physiologie végétale sont très divers et concernent notamment :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Physiologie_v%C3%A9g%C3%A9tale</t>
+          <t>Physiologie_végétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Histoire[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1627, Sir Francis Bacon publia l'une des premières expériences de physiologie végétale dans son livre Sylva Sylvarum. Bacon réussit à faire grandir quelques plantes terrestres, comme des roses, dans de l'eau et conclut que le sol n'était nécessaire que pour maintenir les plantes érigées. Jan Baptist van Helmont publia en 1648 la première expérience quantitative de physiologie végétale, dans laquelle il expliquait avoir fait pousser un saule dans un pot contenant une quantité de sol sec de 200 livres et que cette quantité de sol sec n'avait diminué en 5 ans que de deux onces. Van Helmont conclut que les plantes sont constituées d'éléments venant de l'eau et non du sol. En 1699, John Woodward publia des expériences de croissance de menthe dans différents types d'eau. Il observa que les plantes se développaient mieux dans de l'eau additionnée de sol que dans l'eau distillée.
 Stephen Hales est considéré comme le père de la physiologie végétale grâce à de nombreuses expériences qu'il publia en 1727.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Physiologie_v%C3%A9g%C3%A9tale</t>
+          <t>Physiologie_végétale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>William G. Hopkins, (trad. de la 2e édition américaine par Serge Rambour, révision scientifique de Charles-Marie Evrard) Physiologie Végétale, De Boeck Université, 2003  (ISBN 2744500895)</t>
         </is>
